--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>tableName</t>
   </si>
@@ -31,7 +31,40 @@
     <t>rwCount</t>
   </si>
   <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>inpatient_stay</t>
+  </si>
+  <si>
     <t>aco_x_patient_month</t>
+  </si>
+  <si>
+    <t>patient_x_month</t>
+  </si>
+  <si>
+    <t>patient_x_medicare_month</t>
+  </si>
+  <si>
+    <t>patient_x_chronic_condition_month</t>
+  </si>
+  <si>
+    <t>patient_x_risk_score_month</t>
   </si>
   <si>
     <t>PROD_A2024</t>
@@ -399,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,16 +463,236 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>92472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>44456</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>158216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>504902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>383901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>286105429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>104792849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1431852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
         <v>11602734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>21512490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>23428695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>139243578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>16910492</v>
       </c>
     </row>
   </sheetData>

--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="count and max test" sheetId="1" r:id="rId1"/>
+    <sheet name="count max compare test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
   <si>
     <t>tableName</t>
   </si>
@@ -71,6 +72,36 @@
   </si>
   <si>
     <t>m-2021-08</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>PROD_A2024_fe</t>
   </si>
 </sst>
 </file>
@@ -698,4 +729,469 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>92472</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>92472</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>158216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>158216</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>504902</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>504902</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>383901</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>383901</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>286105429</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>286105429</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>104792849</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>104792849</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>1431852</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>1431852</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>11602734</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>11602734</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>21512490</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>21512490</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>23428695</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>23428695</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>139243578</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>139243578</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>16910492</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>16910492</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="count and max test" sheetId="1" r:id="rId1"/>
     <sheet name="count max compare test" sheetId="2" r:id="rId2"/>
+    <sheet name="dup check test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="31">
   <si>
     <t>tableName</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>PROD_A2024_fe</t>
+  </si>
+  <si>
+    <t>rowsEffected</t>
+  </si>
+  <si>
+    <t>pkRowCount</t>
   </si>
 </sst>
 </file>
@@ -1194,4 +1201,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
   <si>
     <t>tableName</t>
   </si>
@@ -72,37 +72,40 @@
     <t>PROD_A2024</t>
   </si>
   <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>PROD_A2024_fe</t>
+  </si>
+  <si>
     <t>m-2021-08</t>
-  </si>
-  <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>PROD_A2024_fe</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -504,13 +507,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>92472</v>
+        <v>92856</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,13 +527,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>158216</v>
+        <v>158832</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -544,13 +547,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>504902</v>
+        <v>507768</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -564,13 +567,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>383901</v>
+        <v>385356</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -584,13 +587,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6">
-        <v>286105429</v>
+        <v>288466615</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -604,13 +607,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>104792849</v>
+        <v>105753544</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -624,13 +627,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>1431852</v>
+        <v>1444652</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -644,7 +647,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -664,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -684,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11">
-        <v>23428695</v>
+        <v>23804750</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>139243578</v>
+        <v>139967002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,13 +727,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>16910492</v>
+        <v>17053026</v>
       </c>
     </row>
   </sheetData>
@@ -789,13 +792,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>92472</v>
+        <v>92856</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -804,13 +807,13 @@
         <v>44456</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>92472</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -824,13 +827,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>158216</v>
+        <v>158832</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -839,13 +842,13 @@
         <v>44456</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>158216</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -859,13 +862,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>504902</v>
+        <v>507768</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -874,13 +877,13 @@
         <v>44456</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J4">
         <v>504902</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -894,13 +897,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>383901</v>
+        <v>385356</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -909,13 +912,13 @@
         <v>44456</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>383901</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -929,13 +932,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6">
-        <v>286105429</v>
+        <v>288466615</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -944,13 +947,13 @@
         <v>44456</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>286105429</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2361186</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -964,13 +967,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>104792849</v>
+        <v>105753544</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -979,13 +982,13 @@
         <v>44456</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>104792849</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>960695</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -999,13 +1002,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>1431852</v>
+        <v>1444652</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1014,13 +1017,13 @@
         <v>44456</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>1431852</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1034,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1049,7 +1052,7 @@
         <v>44456</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>11602734</v>
@@ -1069,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1084,7 +1087,7 @@
         <v>44456</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J10">
         <v>21512490</v>
@@ -1104,13 +1107,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11">
-        <v>23428695</v>
+        <v>23804750</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -1119,13 +1122,13 @@
         <v>44456</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J11">
         <v>23428695</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>376055</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1139,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>139243578</v>
+        <v>139967002</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1154,13 +1157,13 @@
         <v>44456</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J12">
         <v>139243578</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>723424</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1174,13 +1177,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>44456</v>
+        <v>44470</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>16910492</v>
+        <v>17053026</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
@@ -1189,13 +1192,13 @@
         <v>44456</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J13">
         <v>16910492</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>142534</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -10,13 +10,14 @@
     <sheet name="count and max test" sheetId="1" r:id="rId1"/>
     <sheet name="count max compare test" sheetId="2" r:id="rId2"/>
     <sheet name="dup check test" sheetId="3" r:id="rId3"/>
+    <sheet name="aco x dup month" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
   <si>
     <t>tableName</t>
   </si>
@@ -112,6 +113,63 @@
   </si>
   <si>
     <t>pkRowCount</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_REASON_CD</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_SOURCE_CD</t>
+  </si>
+  <si>
+    <t>FK_ACO_ID</t>
+  </si>
+  <si>
+    <t>FK_PATIENT_ID</t>
+  </si>
+  <si>
+    <t>MONTH_CD</t>
+  </si>
+  <si>
+    <t>DUPMOCNT</t>
+  </si>
+  <si>
+    <t>#NA</t>
+  </si>
+  <si>
+    <t>step_0</t>
+  </si>
+  <si>
+    <t>qassgn</t>
+  </si>
+  <si>
+    <t>A2024</t>
+  </si>
+  <si>
+    <t>cms_mssp|3MJ9Y42HH52</t>
+  </si>
+  <si>
+    <t>cms_mssp|6CP3QT9YT74</t>
+  </si>
+  <si>
+    <t>cms_mssp|7DV3Q55UJ01</t>
+  </si>
+  <si>
+    <t>m-2018-07</t>
+  </si>
+  <si>
+    <t>m-2018-08</t>
+  </si>
+  <si>
+    <t>m-2018-09</t>
+  </si>
+  <si>
+    <t>m-2018-10</t>
+  </si>
+  <si>
+    <t>m-2018-11</t>
+  </si>
+  <si>
+    <t>m-2018-12</t>
   </si>
 </sst>
 </file>
@@ -1411,4 +1469,451 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/allTest_prod_a2024.xlsx
+++ b/allTest_prod_a2024.xlsx
@@ -103,7 +103,7 @@
     <t>diff</t>
   </si>
   <si>
-    <t>PROD_A2024_fe</t>
+    <t>PROD_A2024_FE</t>
   </si>
   <si>
     <t>m-2021-08</t>
